--- a/Asignación tareas/tareas-sprint-2.xlsx
+++ b/Asignación tareas/tareas-sprint-2.xlsx
@@ -420,7 +420,7 @@
   <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C13"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -552,8 +552,8 @@
         <v>13</v>
       </c>
       <c r="B1">
-        <f ca="1">RAND()</f>
-        <v>2.025067844781403E-2</v>
+        <f t="shared" ref="B1:B6" ca="1" si="0">RAND()</f>
+        <v>0.8537764267472977</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
@@ -561,8 +561,8 @@
         <v>12</v>
       </c>
       <c r="B2">
-        <f ca="1">RAND()</f>
-        <v>0.72506862933496441</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0.71621726072368752</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -570,8 +570,8 @@
         <v>16</v>
       </c>
       <c r="B3">
-        <f ca="1">RAND()</f>
-        <v>5.7001078114285675E-2</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0.7259834810786735</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -579,8 +579,8 @@
         <v>17</v>
       </c>
       <c r="B4">
-        <f ca="1">RAND()</f>
-        <v>1.3944232166959836E-2</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0.16053121372798473</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
@@ -588,8 +588,8 @@
         <v>15</v>
       </c>
       <c r="B5">
-        <f ca="1">RAND()</f>
-        <v>0.45473988123610232</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0.74855766438952209</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
@@ -597,8 +597,8 @@
         <v>14</v>
       </c>
       <c r="B6">
-        <f ca="1">RAND()</f>
-        <v>0.19030559031165206</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0.76251553682408646</v>
       </c>
     </row>
   </sheetData>
